--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_75.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_75.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Takuma Takahashi</t>
+          <t>Rika Kimura</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Takuma Takahashi</t>
+          <t>Rika Kimura</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Takuma Takahashi</t>
+          <t>Rika Kimura</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Takuma Takahashi</t>
+          <t>Rika Kimura</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Takuma Takahashi</t>
+          <t>Rika Kimura</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Takuma Takahashi</t>
+          <t>Rika Kimura</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Takuma Takahashi</t>
+          <t>Rika Kimura</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Takuma Takahashi</t>
+          <t>Rika Kimura</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Takuma Takahashi</t>
+          <t>Rika Kimura</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Takuma Takahashi</t>
+          <t>Rika Kimura</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Takuma Takahashi</t>
+          <t>Rika Kimura</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Takuma Takahashi</t>
+          <t>Rika Kimura</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Takuma Takahashi</t>
+          <t>Rika Kimura</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Takuma Takahashi</t>
+          <t>Rika Kimura</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Takuma Takahashi</t>
+          <t>Rika Kimura</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
